--- a/Datas/Product.xlsx
+++ b/Datas/Product.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EFA177-33A2-4321-B4F9-0D9BD2635BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>ProductItemId</t>
+  </si>
+  <si>
+    <t>ProductItemAmount</t>
+  </si>
+  <si>
+    <t>WorkLoad</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +63,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,14 +114,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +445,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>